--- a/CML隐私设置.xlsx
+++ b/CML隐私设置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Test\JenkinsTestProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7106E8C5-338D-48EB-BA77-D9FF15D8A5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93295527-809A-486A-B220-7CF17011B8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>联系信息</t>
   </si>
@@ -420,7 +420,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -457,7 +457,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -470,12 +473,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -756,7 +759,7 @@
   <dimension ref="A1:AK20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -796,120 +799,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
     </row>
     <row r="2" spans="1:37" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13" t="s">
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13" t="s">
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="14" t="s">
+      <c r="P2" s="14"/>
+      <c r="Q2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="14" t="s">
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="Z2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13" t="s">
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="13" t="s">
+      <c r="AD2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13" t="s">
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13" t="s">
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:37" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
@@ -946,8 +949,8 @@
       <c r="P3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
       <c r="S3" s="9" t="s">
         <v>28</v>
       </c>
@@ -966,15 +969,15 @@
       <c r="X3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
       <c r="AA3" s="5" t="s">
         <v>34</v>
       </c>
       <c r="AB3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AC3" s="13"/>
+      <c r="AC3" s="14"/>
       <c r="AD3" s="6" t="s">
         <v>36</v>
       </c>
@@ -993,12 +996,12 @@
       <c r="AI3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AJ3" s="13"/>
+      <c r="AJ3" s="14"/>
     </row>
     <row r="4" spans="1:37" s="1" customFormat="1" ht="132.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -1042,9 +1045,9 @@
       <c r="AJ4" s="4"/>
     </row>
     <row r="5" spans="1:37" s="1" customFormat="1" ht="101.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="8" t="s">
         <v>44</v>
       </c>
@@ -1082,9 +1085,9 @@
       <c r="AJ5" s="4"/>
     </row>
     <row r="6" spans="1:37" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="13"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="8" t="s">
         <v>45</v>
       </c>
@@ -1102,7 +1105,9 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
+      <c r="S6" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
@@ -1124,9 +1129,9 @@
       <c r="AJ6" s="4"/>
     </row>
     <row r="7" spans="1:37" s="1" customFormat="1" ht="60.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="6" t="s">
         <v>47</v>
       </c>
@@ -1164,9 +1169,9 @@
       <c r="AJ7" s="4"/>
     </row>
     <row r="8" spans="1:37" s="1" customFormat="1" ht="141.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="6" t="s">
         <v>48</v>
       </c>
@@ -1211,9 +1216,9 @@
       <c r="AJ8" s="4"/>
     </row>
     <row r="9" spans="1:37" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="13"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="6" t="s">
         <v>49</v>
       </c>
@@ -1251,346 +1256,418 @@
       <c r="AJ9" s="4"/>
     </row>
     <row r="10" spans="1:37" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11" t="s">
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11" t="s">
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AB10" s="11" t="s">
+      <c r="AB10" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11" t="s">
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
-      <c r="AJ10" s="11"/>
-      <c r="AK10" s="12"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="19"/>
     </row>
     <row r="11" spans="1:37" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="11"/>
-      <c r="AK11" s="12"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="19"/>
     </row>
     <row r="12" spans="1:37" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="12"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="19"/>
     </row>
     <row r="13" spans="1:37" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
-      <c r="AK13" s="12"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="19"/>
     </row>
     <row r="14" spans="1:37" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11" t="s">
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11" t="s">
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="AB14" s="11" t="s">
+      <c r="AB14" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11" t="s">
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="11"/>
-      <c r="AJ14" s="11"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
     </row>
     <row r="15" spans="1:37" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11"/>
-      <c r="AJ15" s="11"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
     </row>
     <row r="16" spans="1:37" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
     </row>
     <row r="17" spans="1:36" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
     </row>
     <row r="18" spans="1:36" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15"/>
     <row r="19" spans="1:36" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:36" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="AJ10:AJ13"/>
+    <mergeCell ref="AJ14:AJ17"/>
+    <mergeCell ref="AK10:AK13"/>
+    <mergeCell ref="AG10:AG13"/>
+    <mergeCell ref="AG14:AG17"/>
+    <mergeCell ref="AH10:AH13"/>
+    <mergeCell ref="AH14:AH17"/>
+    <mergeCell ref="AI10:AI13"/>
+    <mergeCell ref="AI14:AI17"/>
+    <mergeCell ref="AD10:AD13"/>
+    <mergeCell ref="AD14:AD17"/>
+    <mergeCell ref="AE10:AE13"/>
+    <mergeCell ref="AE14:AE17"/>
+    <mergeCell ref="AF10:AF13"/>
+    <mergeCell ref="AF14:AF17"/>
+    <mergeCell ref="AB10:AB13"/>
+    <mergeCell ref="AB14:AB17"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AC10:AC13"/>
+    <mergeCell ref="AC14:AC17"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="Z10:Z13"/>
+    <mergeCell ref="Z14:Z17"/>
+    <mergeCell ref="AA10:AA13"/>
+    <mergeCell ref="AA14:AA17"/>
+    <mergeCell ref="W10:W13"/>
+    <mergeCell ref="W14:W17"/>
+    <mergeCell ref="X10:X13"/>
+    <mergeCell ref="X14:X17"/>
+    <mergeCell ref="Y10:Y13"/>
+    <mergeCell ref="Y14:Y17"/>
+    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="T14:T17"/>
+    <mergeCell ref="U10:U13"/>
+    <mergeCell ref="U14:U17"/>
+    <mergeCell ref="V10:V13"/>
+    <mergeCell ref="V14:V17"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R10:R13"/>
+    <mergeCell ref="R14:R17"/>
+    <mergeCell ref="S10:S13"/>
+    <mergeCell ref="S14:S17"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="Q10:Q13"/>
+    <mergeCell ref="Q14:Q17"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E17"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="J2:K2"/>
@@ -1607,78 +1684,6 @@
     <mergeCell ref="A3:A17"/>
     <mergeCell ref="B3:B17"/>
     <mergeCell ref="C4:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="Q10:Q13"/>
-    <mergeCell ref="Q14:Q17"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R10:R13"/>
-    <mergeCell ref="R14:R17"/>
-    <mergeCell ref="S10:S13"/>
-    <mergeCell ref="S14:S17"/>
-    <mergeCell ref="T10:T13"/>
-    <mergeCell ref="T14:T17"/>
-    <mergeCell ref="U10:U13"/>
-    <mergeCell ref="U14:U17"/>
-    <mergeCell ref="V10:V13"/>
-    <mergeCell ref="V14:V17"/>
-    <mergeCell ref="W10:W13"/>
-    <mergeCell ref="W14:W17"/>
-    <mergeCell ref="X10:X13"/>
-    <mergeCell ref="X14:X17"/>
-    <mergeCell ref="Y10:Y13"/>
-    <mergeCell ref="Y14:Y17"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="Z10:Z13"/>
-    <mergeCell ref="Z14:Z17"/>
-    <mergeCell ref="AA10:AA13"/>
-    <mergeCell ref="AA14:AA17"/>
-    <mergeCell ref="AB10:AB13"/>
-    <mergeCell ref="AB14:AB17"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AC10:AC13"/>
-    <mergeCell ref="AC14:AC17"/>
-    <mergeCell ref="AD10:AD13"/>
-    <mergeCell ref="AD14:AD17"/>
-    <mergeCell ref="AE10:AE13"/>
-    <mergeCell ref="AE14:AE17"/>
-    <mergeCell ref="AF10:AF13"/>
-    <mergeCell ref="AF14:AF17"/>
-    <mergeCell ref="AJ10:AJ13"/>
-    <mergeCell ref="AJ14:AJ17"/>
-    <mergeCell ref="AK10:AK13"/>
-    <mergeCell ref="AG10:AG13"/>
-    <mergeCell ref="AG14:AG17"/>
-    <mergeCell ref="AH10:AH13"/>
-    <mergeCell ref="AH14:AH17"/>
-    <mergeCell ref="AI10:AI13"/>
-    <mergeCell ref="AI14:AI17"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
